--- a/data-files/More Forbes Data.xlsx
+++ b/data-files/More Forbes Data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buddyscott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buddyscott/Desktop/Gov-50/nba-team-business-models/data-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EDEC7C-8810-E346-944E-B5B72523F5F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954BD93F-B298-1049-872E-78732402E5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DBD52331-4C14-3C49-ACB0-632EA9A90360}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="17040" xr2:uid="{DBD52331-4C14-3C49-ACB0-632EA9A90360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>team</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>MEM</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>stadium</t>
+  </si>
+  <si>
+    <t>brand</t>
   </si>
 </sst>
 </file>
@@ -192,9 +204,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1073,828 +1090,1201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3238F058-58C1-E946-B689-77C3F12B587A}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1997</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>300</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>134</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>132</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>36</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>39</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="I2" s="1">
+        <v>787</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2041</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1151</v>
+      </c>
+      <c r="L2" s="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1998</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>268</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>120</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>104</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>87</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>54</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="I3" s="1">
+        <v>818</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2130</v>
+      </c>
+      <c r="K3" s="1">
+        <v>698</v>
+      </c>
+      <c r="L3" s="1">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2010</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>450</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>156</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>178</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>154</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>51</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="I4" s="1">
+        <v>839</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1671</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1068</v>
+      </c>
+      <c r="L4" s="1">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1985</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>16.2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>115</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>61</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>54</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="I5" s="1">
+        <v>1177</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1035</v>
+      </c>
+      <c r="K5" s="1">
+        <v>649</v>
+      </c>
+      <c r="L5" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2002</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>360</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>139</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>85</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>100</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>40</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="I6" s="1">
+        <v>1222</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1058</v>
+      </c>
+      <c r="K6" s="1">
+        <v>451</v>
+      </c>
+      <c r="L6" s="1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2014</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>128</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>64</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>115</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="I7" s="1">
+        <v>1114</v>
+      </c>
+      <c r="J7" s="1">
+        <v>876</v>
+      </c>
+      <c r="K7" s="1">
+        <v>332</v>
+      </c>
+      <c r="L7" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2019</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>3300</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>135</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>60</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>92</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>19</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="I8" s="1">
+        <v>929</v>
+      </c>
+      <c r="J8" s="1">
+        <v>743</v>
+      </c>
+      <c r="K8" s="1">
+        <v>607</v>
+      </c>
+      <c r="L8" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>2017</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>2200</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>146</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>97</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>126</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>39</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="I9" s="1">
+        <v>731</v>
+      </c>
+      <c r="J9" s="1">
+        <v>895</v>
+      </c>
+      <c r="K9" s="1">
+        <v>585</v>
+      </c>
+      <c r="L9" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>2000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>280</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>108</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>52</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>86</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>27</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="I10" s="1">
+        <v>866</v>
+      </c>
+      <c r="J10" s="1">
+        <v>863</v>
+      </c>
+      <c r="K10" s="1">
+        <v>397</v>
+      </c>
+      <c r="L10" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>2012</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>400</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>146</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>101</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>175</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>37</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="I11" s="1">
+        <v>741</v>
+      </c>
+      <c r="J11" s="1">
+        <v>616</v>
+      </c>
+      <c r="K11" s="1">
+        <v>478</v>
+      </c>
+      <c r="L11" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>2011</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>287</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>117</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>71</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>157</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>29</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="I12" s="1">
+        <v>818</v>
+      </c>
+      <c r="J12" s="1">
+        <v>625</v>
+      </c>
+      <c r="K12" s="1">
+        <v>331</v>
+      </c>
+      <c r="L12" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1988</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>32.5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>144</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>70</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>76</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>29</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="I13" s="1">
+        <v>754</v>
+      </c>
+      <c r="J13" s="1">
+        <v>642</v>
+      </c>
+      <c r="K13" s="1">
+        <v>339</v>
+      </c>
+      <c r="L13" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1988</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>70</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>143</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>67</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>136</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>67</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="I14" s="1">
+        <v>818</v>
+      </c>
+      <c r="J14" s="1">
+        <v>488</v>
+      </c>
+      <c r="K14" s="1">
+        <v>364</v>
+      </c>
+      <c r="L14" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1996</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>76</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>142</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>76</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>108</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>64</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="I15" s="1">
+        <v>793</v>
+      </c>
+      <c r="J15" s="1">
+        <v>497</v>
+      </c>
+      <c r="K15" s="1">
+        <v>364</v>
+      </c>
+      <c r="L15" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>2013</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>534</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>107</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>60</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>103</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>75</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="I16" s="1">
+        <v>749</v>
+      </c>
+      <c r="J16" s="1">
+        <v>472</v>
+      </c>
+      <c r="K16" s="1">
+        <v>374</v>
+      </c>
+      <c r="L16" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>2010</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>551</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>142</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>53</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>64</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>24</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="I17" s="1">
+        <v>818</v>
+      </c>
+      <c r="J17" s="1">
+        <v>489</v>
+      </c>
+      <c r="K17" s="1">
+        <v>270</v>
+      </c>
+      <c r="L17" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>2004</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>404</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>115</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>34</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>47</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>24</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="I18" s="1">
+        <v>890</v>
+      </c>
+      <c r="J18" s="1">
+        <v>368</v>
+      </c>
+      <c r="K18" s="1">
+        <v>236</v>
+      </c>
+      <c r="L18" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>2000</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>202</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>131</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>47</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>147</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>40</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="I19" s="1">
+        <v>867</v>
+      </c>
+      <c r="J19" s="1">
+        <v>348</v>
+      </c>
+      <c r="K19" s="1">
+        <v>256</v>
+      </c>
+      <c r="L19" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>2014</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>550</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>126</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>65</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>180</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>98</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="I20" s="1">
+        <v>707</v>
+      </c>
+      <c r="J20" s="1">
+        <v>422</v>
+      </c>
+      <c r="K20" s="1">
+        <v>304</v>
+      </c>
+      <c r="L20" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>2006</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>325</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>162</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>63</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>89</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>91</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="I21" s="1">
+        <v>798</v>
+      </c>
+      <c r="J21" s="1">
+        <v>402</v>
+      </c>
+      <c r="K21" s="1">
+        <v>239</v>
+      </c>
+      <c r="L21" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>1986</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>24</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>129</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>58</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>132</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>106</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="I22" s="1">
+        <v>790</v>
+      </c>
+      <c r="J22" s="1">
+        <v>381</v>
+      </c>
+      <c r="K22" s="1">
+        <v>257</v>
+      </c>
+      <c r="L22" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>1983</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>10.5</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>119</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>32</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>114</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>50</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="I23" s="1">
+        <v>903</v>
+      </c>
+      <c r="J23" s="1">
+        <v>279</v>
+      </c>
+      <c r="K23" s="1">
+        <v>241</v>
+      </c>
+      <c r="L23" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>2015</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>730</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>95</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>32</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>86</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>20</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="I24" s="1">
+        <v>811</v>
+      </c>
+      <c r="J24" s="1">
+        <v>316</v>
+      </c>
+      <c r="K24" s="1">
+        <v>270</v>
+      </c>
+      <c r="L24" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>2005</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>375</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>137</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>69</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>39</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>88</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="I25" s="1">
+        <v>582</v>
+      </c>
+      <c r="J25" s="1">
+        <v>473</v>
+      </c>
+      <c r="K25" s="1">
+        <v>276</v>
+      </c>
+      <c r="L25" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>2010</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>175</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>127</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>28</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>87</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>40</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="I26" s="1">
+        <v>878</v>
+      </c>
+      <c r="J26" s="1">
+        <v>312</v>
+      </c>
+      <c r="K26" s="1">
+        <v>209</v>
+      </c>
+      <c r="L26" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>2011</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>325</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>138</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>47</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>84</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>28</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="I27" s="1">
+        <v>756</v>
+      </c>
+      <c r="J27" s="1">
+        <v>407</v>
+      </c>
+      <c r="K27" s="1">
+        <v>171</v>
+      </c>
+      <c r="L27" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>1991</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>85</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>120</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>43</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>104</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>45</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="I28" s="1">
+        <v>802</v>
+      </c>
+      <c r="J28" s="1">
+        <v>342</v>
+      </c>
+      <c r="K28" s="1">
+        <v>168</v>
+      </c>
+      <c r="L28" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>1995</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>88.5</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>132</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>33</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>77</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>26</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="I29" s="1">
+        <v>828</v>
+      </c>
+      <c r="J29" s="1">
+        <v>310</v>
+      </c>
+      <c r="K29" s="1">
+        <v>137</v>
+      </c>
+      <c r="L29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>2012</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>338</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>127</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>33</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>73</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>60</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="I30" s="1">
+        <v>878</v>
+      </c>
+      <c r="J30" s="1">
+        <v>226</v>
+      </c>
+      <c r="K30" s="1">
+        <v>161</v>
+      </c>
+      <c r="L30" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>2012</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>377</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>136</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>20</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>69</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>56</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>1.4</v>
+      </c>
+      <c r="I31" s="1">
+        <v>847</v>
+      </c>
+      <c r="J31" s="1">
+        <v>262</v>
+      </c>
+      <c r="K31" s="1">
+        <v>116</v>
+      </c>
+      <c r="L31" s="1">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data-files/More Forbes Data.xlsx
+++ b/data-files/More Forbes Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buddyscott/Desktop/Gov-50/nba-team-business-models/data-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954BD93F-B298-1049-872E-78732402E5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E52593-561E-A44B-8F19-155064600EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="17040" xr2:uid="{DBD52331-4C14-3C49-ACB0-632EA9A90360}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>team</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>brand</t>
+  </si>
+  <si>
+    <t>avg_ticket</t>
+  </si>
+  <si>
+    <t>build_cost</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3238F058-58C1-E946-B689-77C3F12B587A}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1115,7 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,8 +1152,14 @@
       <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1184,8 +1196,14 @@
       <c r="L2" s="1">
         <v>620</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="1">
+        <v>140</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1222,8 +1240,14 @@
       <c r="L3" s="1">
         <v>754</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="1">
+        <v>150</v>
+      </c>
+      <c r="N3" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1260,8 +1284,14 @@
       <c r="L4" s="1">
         <v>722</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="1">
+        <v>125</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1328,14 @@
       <c r="L5" s="1">
         <v>338</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="1">
+        <v>85</v>
+      </c>
+      <c r="N5" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1336,8 +1372,14 @@
       <c r="L6" s="1">
         <v>369</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="1">
+        <v>95</v>
+      </c>
+      <c r="N6" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1374,8 +1416,14 @@
       <c r="L7" s="1">
         <v>278</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="1">
+        <v>90</v>
+      </c>
+      <c r="N7" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1412,8 +1460,14 @@
       <c r="L8" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="1">
+        <v>90</v>
+      </c>
+      <c r="N8" s="1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1450,8 +1504,14 @@
       <c r="L9" s="1">
         <v>265</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="1">
+        <v>90</v>
+      </c>
+      <c r="N9" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1488,8 +1548,14 @@
       <c r="L10" s="1">
         <v>273</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="1">
+        <v>70</v>
+      </c>
+      <c r="N10" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1526,8 +1592,14 @@
       <c r="L11" s="1">
         <v>264</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="1">
+        <v>78</v>
+      </c>
+      <c r="N11" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1564,8 +1636,14 @@
       <c r="L12" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="1">
+        <v>70</v>
+      </c>
+      <c r="N12" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1602,8 +1680,14 @@
       <c r="L13" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="1">
+        <v>94</v>
+      </c>
+      <c r="N13" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1640,8 +1724,14 @@
       <c r="L14" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="1">
+        <v>66</v>
+      </c>
+      <c r="N14" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1678,8 +1768,14 @@
       <c r="L15" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="1">
+        <v>75</v>
+      </c>
+      <c r="N15" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1716,8 +1812,14 @@
       <c r="L16" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="1">
+        <v>89</v>
+      </c>
+      <c r="N16" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1856,14 @@
       <c r="L17" s="1">
         <v>173</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="1">
+        <v>85</v>
+      </c>
+      <c r="N17" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1792,8 +1900,14 @@
       <c r="L18" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="1">
+        <v>59</v>
+      </c>
+      <c r="N18" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1830,8 +1944,14 @@
       <c r="L19" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="1">
+        <v>55</v>
+      </c>
+      <c r="N19" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1868,8 +1988,14 @@
       <c r="L20" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="1">
+        <v>65</v>
+      </c>
+      <c r="N20" s="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1906,8 +2032,14 @@
       <c r="L21" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="1">
+        <v>70</v>
+      </c>
+      <c r="N21" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1944,8 +2076,14 @@
       <c r="L22" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="1">
+        <v>56</v>
+      </c>
+      <c r="N22" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1982,8 +2120,14 @@
       <c r="L23" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="1">
+        <v>50</v>
+      </c>
+      <c r="N23" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2020,8 +2164,14 @@
       <c r="L24" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="1">
+        <v>72</v>
+      </c>
+      <c r="N24" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -2058,8 +2208,14 @@
       <c r="L25" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="1">
+        <v>85</v>
+      </c>
+      <c r="N25" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -2096,8 +2252,14 @@
       <c r="L26" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="1">
+        <v>35</v>
+      </c>
+      <c r="N26" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -2134,8 +2296,14 @@
       <c r="L27" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="1">
+        <v>53</v>
+      </c>
+      <c r="N27" s="1">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -2172,8 +2340,14 @@
       <c r="L28" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="1">
+        <v>50</v>
+      </c>
+      <c r="N28" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -2210,8 +2384,14 @@
       <c r="L29" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="1">
+        <v>47</v>
+      </c>
+      <c r="N29" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -2248,8 +2428,14 @@
       <c r="L30" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="1">
+        <v>42</v>
+      </c>
+      <c r="N30" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -2285,6 +2471,12 @@
       </c>
       <c r="L31" s="1">
         <v>75</v>
+      </c>
+      <c r="M31" s="1">
+        <v>35</v>
+      </c>
+      <c r="N31" s="1">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
